--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1337.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1337.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.101318472789055</v>
+        <v>1.101938724517822</v>
       </c>
       <c r="B1">
-        <v>2.599182080931679</v>
+        <v>2.245247602462769</v>
       </c>
       <c r="C1">
-        <v>4.6042856529309</v>
+        <v>9.548543930053711</v>
       </c>
       <c r="D1">
-        <v>2.464667080926418</v>
+        <v>2.240005970001221</v>
       </c>
       <c r="E1">
-        <v>1.199685142719526</v>
+        <v>1.28649640083313</v>
       </c>
     </row>
   </sheetData>
